--- a/data/trans_dic/P62A$invalidez-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62A$invalidez-Provincia-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.03396978369010693</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2741493787313757</v>
+        <v>0.2741493787313758</v>
       </c>
     </row>
     <row r="5">
@@ -708,34 +708,34 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05444819312816997</v>
+        <v>0.04667181161079969</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08525434407521019</v>
+        <v>0.08415090558830265</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.03125697889134002</v>
+        <v>0.03003264816619621</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01755677173684381</v>
+        <v>0.01712902199305146</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3678854798104268</v>
+        <v>0.3717704759598487</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02804150018527508</v>
+        <v>0.02853100880806093</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07039538992574693</v>
+        <v>0.07358545934122522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008193663109001678</v>
+        <v>0.008613302373833802</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1960790096423904</v>
+        <v>0.190822781155101</v>
       </c>
     </row>
     <row r="6">
@@ -746,34 +746,34 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2501729991523867</v>
+        <v>0.241114866463409</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2514746693970704</v>
+        <v>0.2401999014216759</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.1884230813253928</v>
+        <v>0.1854249487775732</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1653602584434647</v>
+        <v>0.1615157478430596</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6277078030623598</v>
+        <v>0.6277307173192959</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1432249958435169</v>
+        <v>0.1416377822689063</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1886408304039776</v>
+        <v>0.1786057531374843</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07803719174704163</v>
+        <v>0.08022784925665444</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3596437050027149</v>
+        <v>0.35780242560123</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.06983550801201607</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.437818485626435</v>
+        <v>0.4378184856264349</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.129445212261784</v>
@@ -832,38 +832,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09472824201036964</v>
+        <v>0.09322620305694643</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1453574973471492</v>
+        <v>0.1463072826175519</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04799856274685044</v>
+        <v>0.0431947429992982</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>0.04665632162318779</v>
+        <v>0.04656927683379235</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0747700305933577</v>
+        <v>0.0788840508030766</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02536599892509758</v>
+        <v>0.02526349228229627</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3721880612717336</v>
+        <v>0.3680733314542381</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08871866421481499</v>
+        <v>0.08693444700950223</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1297074784756511</v>
+        <v>0.1289032110276533</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.048181052344417</v>
+        <v>0.04838528941854243</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1683634021154689</v>
+        <v>0.1657484112291367</v>
       </c>
     </row>
     <row r="9">
@@ -874,38 +874,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2240678761992099</v>
+        <v>0.2262234993090448</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2972020653700083</v>
+        <v>0.2927094093574868</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1417733988272613</v>
+        <v>0.1442474854952611</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.1832787202364946</v>
+        <v>0.1779918244350108</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2364857144265437</v>
+        <v>0.2351252328658829</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1484370321050028</v>
+        <v>0.1443233188674082</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5108469938184179</v>
+        <v>0.5135054181057994</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1799692248500074</v>
+        <v>0.1796173603361038</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2387489817504659</v>
+        <v>0.2387008284925421</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1197578477619586</v>
+        <v>0.1180484582105237</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2495809646716323</v>
+        <v>0.2433551032674268</v>
       </c>
     </row>
     <row r="10">
@@ -964,40 +964,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03628413971873976</v>
+        <v>0.02843501419203517</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09067593422541348</v>
+        <v>0.08643070461493503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02341224391726557</v>
+        <v>0.02253476477513648</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01472722000462414</v>
+        <v>0.01455986513118336</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01398739825779785</v>
+        <v>0.01372110882516654</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01247646413630761</v>
+        <v>0.01212658147151429</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3755586866205542</v>
+        <v>0.363914602739201</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02935932666553832</v>
+        <v>0.0289748722053444</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06459913189162197</v>
+        <v>0.06707081416093888</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02326011694934949</v>
+        <v>0.02412869144851889</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1767476323861008</v>
+        <v>0.1764313681798634</v>
       </c>
     </row>
     <row r="12">
@@ -1008,40 +1008,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1660935818844432</v>
+        <v>0.1659149411889156</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2891649369809862</v>
+        <v>0.2625626814875725</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1457733237749001</v>
+        <v>0.1442148008455134</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0460253596128355</v>
+        <v>0.04652353406155854</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1392015826636057</v>
+        <v>0.1217954599355267</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1400263090242153</v>
+        <v>0.1256319183561587</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1279764621288492</v>
+        <v>0.1089876151260292</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5318580599549488</v>
+        <v>0.5205650727591439</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1162012256044178</v>
+        <v>0.1101968793172915</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1708743221961912</v>
+        <v>0.1726022764444215</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.103327159837439</v>
+        <v>0.09861970689042218</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2736503928720828</v>
+        <v>0.2635018345662865</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.07616414140139512</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3186213479801896</v>
+        <v>0.3186213479801897</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.06449242477110421</v>
@@ -1100,38 +1100,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01416596927067473</v>
+        <v>0.01354770844198797</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0926134913838829</v>
+        <v>0.09425404719052423</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06524587856375987</v>
+        <v>0.06467989601988818</v>
       </c>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
-        <v>0.02913217936169185</v>
+        <v>0.02974190735738573</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06799111101872403</v>
+        <v>0.06107110286312582</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03481783950455164</v>
+        <v>0.0268158620526608</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2461881391684184</v>
+        <v>0.2514543170960072</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02977396128667377</v>
+        <v>0.03002949669394663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09057108294016181</v>
+        <v>0.09338471001848185</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06046403360576272</v>
+        <v>0.06452487764898701</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1226514101483199</v>
+        <v>0.1254497818108673</v>
       </c>
     </row>
     <row r="15">
@@ -1142,38 +1142,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1267161125342816</v>
+        <v>0.125889449257775</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2494688888060892</v>
+        <v>0.2517709070458803</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2104175144307971</v>
+        <v>0.2031785180263733</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>0.1771849102002459</v>
+        <v>0.1631667974826048</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1919934380371889</v>
+        <v>0.1917777022586607</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1561777455340909</v>
+        <v>0.1439785522255773</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3891957998698169</v>
+        <v>0.391921090990595</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1161283330952065</v>
+        <v>0.1191788963361733</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1934918554229885</v>
+        <v>0.198416990329894</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1496519612192424</v>
+        <v>0.1581449450246315</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2016765791719131</v>
+        <v>0.1981236010809746</v>
       </c>
     </row>
     <row r="16">
@@ -1209,7 +1209,7 @@
         <v>0.03232941546233237</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.335509996088154</v>
+        <v>0.3355099960881539</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1437663280173267</v>
@@ -1232,38 +1232,38 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03835925354505935</v>
+        <v>0.03734524395423602</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0410858984972953</v>
+        <v>0.04145861911722892</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0610099949491352</v>
+        <v>0.06176154799957551</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>0.08365223532781539</v>
+        <v>0.08540577669267643</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04035470580094638</v>
+        <v>0.03842170929000241</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2517400050461185</v>
+        <v>0.2592639080777239</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0731429421019206</v>
+        <v>0.07880962906165094</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05396598688088846</v>
+        <v>0.05668423394623152</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0400128009829287</v>
+        <v>0.0406275546012717</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1360381100063598</v>
+        <v>0.1390594079098182</v>
       </c>
     </row>
     <row r="18">
@@ -1274,38 +1274,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2083380258187043</v>
+        <v>0.2061851075465619</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2262193199156164</v>
+        <v>0.2276144579980198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2327425707742659</v>
+        <v>0.2392488719144306</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.3550066708974839</v>
+        <v>0.3723642160146879</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2334713077086307</v>
+        <v>0.2091504774089206</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09899315091023846</v>
+        <v>0.1218364344247032</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.431258382930762</v>
+        <v>0.4280808374338344</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2329919748470129</v>
+        <v>0.2283698001024758</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1900779571218011</v>
+        <v>0.1924359899204379</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1481551991060034</v>
+        <v>0.1492194989206273</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.244517225477446</v>
+        <v>0.2492790911313713</v>
       </c>
     </row>
     <row r="19">
@@ -1365,13 +1365,13 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.08151788232969158</v>
+        <v>0.08152808176547682</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0364876780848477</v>
+        <v>0.03600420092593253</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01189163751024398</v>
+        <v>0.01163817164744185</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
       </c>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.5141554251594421</v>
+        <v>0.5126848133038928</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0532826291161322</v>
+        <v>0.05306708446926829</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02209200535719993</v>
+        <v>0.02290266423131298</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2288818869407415</v>
+        <v>0.2320222428855581</v>
       </c>
     </row>
     <row r="21">
@@ -1405,35 +1405,35 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.2716742395320567</v>
+        <v>0.262047196895896</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.184935859351157</v>
+        <v>0.1754237100624519</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07448741369143146</v>
+        <v>0.07325727646671208</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1487455492635557</v>
+        <v>0.1306737053820327</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.116888564152123</v>
+        <v>0.1054082533343862</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.6799973887489646</v>
+        <v>0.6836993139984826</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06426899611727599</v>
+        <v>0.0639520785462092</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1659898039497459</v>
+        <v>0.1598088386825882</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.112199258422237</v>
+        <v>0.1137195478664318</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3293072638776676</v>
+        <v>0.3291976055641332</v>
       </c>
     </row>
     <row r="22">
@@ -1492,40 +1492,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0323519218753483</v>
+        <v>0.0320869164975815</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09735570311343499</v>
+        <v>0.09338048902314849</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02799707188926112</v>
+        <v>0.02789125087083029</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.004420116827386793</v>
+        <v>0.004443426804496196</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04067241228003159</v>
+        <v>0.0411370331680375</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05790258356179384</v>
+        <v>0.06066574203719547</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04246302009105157</v>
+        <v>0.04012187116011139</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.17663706057418</v>
+        <v>0.179007337330806</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04627023074988308</v>
+        <v>0.04493253101314566</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09645852028820613</v>
+        <v>0.08747107611627278</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04339562588989924</v>
+        <v>0.0438031719731338</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.08899135031421262</v>
+        <v>0.09006915302990422</v>
       </c>
     </row>
     <row r="24">
@@ -1536,40 +1536,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1142239098052121</v>
+        <v>0.1109755159057419</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2163056834934583</v>
+        <v>0.2116016633768708</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1167626344176868</v>
+        <v>0.1122181011107539</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0434545669938337</v>
+        <v>0.04379349077797222</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1566659473653788</v>
+        <v>0.157473753468195</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1824649070526417</v>
+        <v>0.18831602363131</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1450841003474134</v>
+        <v>0.1346272019876018</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2913526979784787</v>
+        <v>0.2939661186142793</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1144719075104405</v>
+        <v>0.1109091972198546</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1726068582201711</v>
+        <v>0.1757079194345771</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1073607038650336</v>
+        <v>0.1072305431179899</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1477574760256841</v>
+        <v>0.1453425541572612</v>
       </c>
     </row>
     <row r="25">
@@ -1628,40 +1628,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.088130757104848</v>
+        <v>0.09270572227428067</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1226111500252501</v>
+        <v>0.1225414202629825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1125588312800984</v>
+        <v>0.1119380725693896</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.008544320566384331</v>
+        <v>0.007284877735912213</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05726935708291131</v>
+        <v>0.05168846343755316</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08476020228084445</v>
+        <v>0.08207631062642007</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.0670441400888879</v>
+        <v>0.06978382515384839</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3664727875883051</v>
+        <v>0.369813612364301</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.09028480717323083</v>
+        <v>0.08790666829846475</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.123256296423379</v>
+        <v>0.1207669186875941</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1046593017579617</v>
+        <v>0.1030646436240567</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1786714896748132</v>
+        <v>0.1813549293955031</v>
       </c>
     </row>
     <row r="27">
@@ -1672,40 +1672,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.198724438416232</v>
+        <v>0.2117224502515289</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2442481334515793</v>
+        <v>0.2391146862087347</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2201083207476795</v>
+        <v>0.215944426398683</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05089111784998004</v>
+        <v>0.05215688608250042</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1735324635164857</v>
+        <v>0.1596540831788678</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1979745604005783</v>
+        <v>0.1909894180465451</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.173516144676772</v>
+        <v>0.1693966301036773</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4800376458700822</v>
+        <v>0.4795937691110083</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1646886641127366</v>
+        <v>0.1660208068469135</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2048237190334774</v>
+        <v>0.2020000678483428</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1807437246976263</v>
+        <v>0.1790120509082326</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2469422882345387</v>
+        <v>0.2441701819496528</v>
       </c>
     </row>
     <row r="28">
@@ -1729,7 +1729,7 @@
         <v>0.09798565194205118</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.01331251390920673</v>
+        <v>0.01331251390920672</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.08229793987075504</v>
@@ -1753,7 +1753,7 @@
         <v>0.08662244059720534</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.1923660332030919</v>
+        <v>0.1923660332030918</v>
       </c>
     </row>
     <row r="29">
@@ -1764,40 +1764,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.07853439492203861</v>
+        <v>0.07717931018446877</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1408017289999829</v>
+        <v>0.1390538884624981</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07924797404986965</v>
+        <v>0.07892967107060074</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.006928395101279921</v>
+        <v>0.007501934307893181</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.06141543492966444</v>
+        <v>0.06173126755344598</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.08282129013605381</v>
+        <v>0.0828222943730213</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.05400155661627228</v>
+        <v>0.0546778712543319</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3611902687530758</v>
+        <v>0.3627717245537423</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.07606866298187306</v>
+        <v>0.07595453400478651</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1203935877595559</v>
+        <v>0.1193409914167878</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.07314175485620428</v>
+        <v>0.0738976741931181</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1776124705650817</v>
+        <v>0.1781974152921591</v>
       </c>
     </row>
     <row r="30">
@@ -1808,40 +1808,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1203262674879033</v>
+        <v>0.1204109775294884</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1908579410315716</v>
+        <v>0.1908580419640886</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1197906245593155</v>
+        <v>0.1199222278753561</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02180632796378092</v>
+        <v>0.02227525554702169</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1081631461637326</v>
+        <v>0.106384347923355</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1290909552259382</v>
+        <v>0.1313796266793991</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.09382418150268458</v>
+        <v>0.09370840149034666</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4125137181140916</v>
+        <v>0.4159522682061109</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1074210541607521</v>
+        <v>0.1071782522606371</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1549766888935842</v>
+        <v>0.1564107801828016</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1026365027858154</v>
+        <v>0.102803927804984</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2068893189570536</v>
+        <v>0.2084555478946757</v>
       </c>
     </row>
     <row r="31">
@@ -2116,34 +2116,34 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2874</v>
+        <v>2464</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6486</v>
+        <v>6402</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>2151</v>
+        <v>2067</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>965</v>
+        <v>942</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11538</v>
+        <v>11660</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2476</v>
+        <v>2519</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>10200</v>
+        <v>10662</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>928</v>
+        <v>975</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11113</v>
+        <v>10815</v>
       </c>
     </row>
     <row r="7">
@@ -2154,34 +2154,34 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13205</v>
+        <v>12727</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19133</v>
+        <v>18275</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>12966</v>
+        <v>12760</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9091</v>
+        <v>8879</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19687</v>
+        <v>19688</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>12647</v>
+        <v>12507</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>27333</v>
+        <v>25879</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8836</v>
+        <v>9084</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20382</v>
+        <v>20278</v>
       </c>
     </row>
     <row r="8">
@@ -2284,38 +2284,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11455</v>
+        <v>11273</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19237</v>
+        <v>19363</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7131</v>
+        <v>6417</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="n">
-        <v>3695</v>
+        <v>3689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6646</v>
+        <v>7012</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2324</v>
+        <v>2315</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>47264</v>
+        <v>46741</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>17755</v>
+        <v>17398</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>28695</v>
+        <v>28517</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11573</v>
+        <v>11622</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>45466</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="11">
@@ -2326,38 +2326,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27096</v>
+        <v>27356</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>39334</v>
+        <v>38739</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21063</v>
+        <v>21431</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>14517</v>
+        <v>14098</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21020</v>
+        <v>20899</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13602</v>
+        <v>13225</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>64872</v>
+        <v>65210</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>36018</v>
+        <v>35947</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>52818</v>
+        <v>52808</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>28766</v>
+        <v>28356</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>67399</v>
+        <v>65718</v>
       </c>
     </row>
     <row r="12">
@@ -2460,40 +2460,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2711</v>
+        <v>2125</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7458</v>
+        <v>7108</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2106</v>
+        <v>2027</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1057</v>
+        <v>1037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>997</v>
+        <v>969</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>32337</v>
+        <v>31335</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4145</v>
+        <v>4091</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10194</v>
+        <v>10584</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3950</v>
+        <v>4098</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>31142</v>
+        <v>31086</v>
       </c>
     </row>
     <row r="15">
@@ -2504,40 +2504,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12412</v>
+        <v>12398</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23782</v>
+        <v>21594</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13111</v>
+        <v>12971</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4146</v>
+        <v>4191</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9252</v>
+        <v>8095</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10581</v>
+        <v>9493</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10225</v>
+        <v>8708</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>45795</v>
+        <v>44823</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>16407</v>
+        <v>15559</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26965</v>
+        <v>27238</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>17549</v>
+        <v>16749</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>48216</v>
+        <v>46428</v>
       </c>
     </row>
     <row r="16">
@@ -2640,38 +2640,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>991</v>
+        <v>948</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9482</v>
+        <v>9650</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6300</v>
+        <v>6245</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="n">
-        <v>1889</v>
+        <v>1929</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6847</v>
+        <v>6150</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2696</v>
+        <v>2076</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21188</v>
+        <v>21642</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4014</v>
+        <v>4049</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>18394</v>
+        <v>18965</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10519</v>
+        <v>11226</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>21462</v>
+        <v>21951</v>
       </c>
     </row>
     <row r="19">
@@ -2682,38 +2682,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8868</v>
+        <v>8811</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25541</v>
+        <v>25777</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20317</v>
+        <v>19618</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="n">
-        <v>11489</v>
+        <v>10580</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>19335</v>
+        <v>19313</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12092</v>
+        <v>11148</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>33497</v>
+        <v>33731</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15658</v>
+        <v>16069</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>39295</v>
+        <v>40296</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>26036</v>
+        <v>27514</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>35289</v>
+        <v>34668</v>
       </c>
     </row>
     <row r="20">
@@ -2816,38 +2816,38 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1736</v>
+        <v>1690</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2052</v>
+        <v>2071</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4070</v>
+        <v>4121</v>
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="n">
-        <v>2923</v>
+        <v>2985</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1897</v>
+        <v>1807</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10893</v>
+        <v>11219</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5867</v>
+        <v>6321</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5233</v>
+        <v>5497</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4958</v>
+        <v>5034</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>10438</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="23">
@@ -2858,38 +2858,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9430</v>
+        <v>9333</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11301</v>
+        <v>11370</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15528</v>
+        <v>15962</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>12406</v>
+        <v>13013</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10978</v>
+        <v>9834</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5662</v>
+        <v>6969</v>
       </c>
       <c r="J23" s="6" t="n">
+        <v>18524</v>
+      </c>
+      <c r="K23" s="6" t="n">
+        <v>18318</v>
+      </c>
+      <c r="L23" s="6" t="n">
         <v>18661</v>
       </c>
-      <c r="K23" s="6" t="n">
-        <v>18689</v>
-      </c>
-      <c r="L23" s="6" t="n">
-        <v>18432</v>
-      </c>
       <c r="M23" s="6" t="n">
-        <v>18359</v>
+        <v>18491</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>18761</v>
+        <v>19127</v>
       </c>
     </row>
     <row r="24">
@@ -2996,10 +2996,10 @@
         <v>6059</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2698</v>
+        <v>2662</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -3009,19 +3009,19 @@
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>31517</v>
+        <v>31427</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>7163</v>
+        <v>7134</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>2612</v>
+        <v>2708</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>32131</v>
+        <v>32572</v>
       </c>
     </row>
     <row r="27">
@@ -3033,35 +3033,35 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>20191</v>
+        <v>19476</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13674</v>
+        <v>12970</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5891</v>
+        <v>5794</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>7069</v>
+        <v>6211</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7026</v>
+        <v>6336</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>41682</v>
+        <v>41909</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7117</v>
+        <v>7082</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>22314</v>
+        <v>21483</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>13266</v>
+        <v>13445</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>46229</v>
+        <v>46214</v>
       </c>
     </row>
     <row r="28">
@@ -3164,40 +3164,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4621</v>
+        <v>4583</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15490</v>
+        <v>14857</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4303</v>
+        <v>4286</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4837</v>
+        <v>4892</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8694</v>
+        <v>9108</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6484</v>
+        <v>6127</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>29779</v>
+        <v>30179</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>12111</v>
+        <v>11761</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>29829</v>
+        <v>27050</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>13295</v>
+        <v>13420</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>31949</v>
+        <v>32336</v>
       </c>
     </row>
     <row r="31">
@@ -3208,40 +3208,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>16314</v>
+        <v>15850</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>34415</v>
+        <v>33667</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>17944</v>
+        <v>17245</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>8275</v>
+        <v>8339</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>18632</v>
+        <v>18728</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>27396</v>
+        <v>28274</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>22154</v>
+        <v>20557</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>49119</v>
+        <v>49560</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>29964</v>
+        <v>29031</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>53378</v>
+        <v>54337</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>32893</v>
+        <v>32853</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>53048</v>
+        <v>52181</v>
       </c>
     </row>
     <row r="32">
@@ -3344,40 +3344,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>14819</v>
+        <v>15588</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>23870</v>
+        <v>23857</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>24041</v>
+        <v>23908</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1915</v>
+        <v>1633</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>7368</v>
+        <v>6650</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>13125</v>
+        <v>12710</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>11996</v>
+        <v>12486</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>73355</v>
+        <v>74024</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>26796</v>
+        <v>26090</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>43083</v>
+        <v>42213</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>41079</v>
+        <v>40453</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>75805</v>
+        <v>76943</v>
       </c>
     </row>
     <row r="35">
@@ -3388,40 +3388,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>33414</v>
+        <v>35600</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>47551</v>
+        <v>46552</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>47011</v>
+        <v>46122</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>11405</v>
+        <v>11689</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>22326</v>
+        <v>20540</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>30657</v>
+        <v>29575</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>31046</v>
+        <v>30309</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>96087</v>
+        <v>95998</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>48879</v>
+        <v>49274</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>71593</v>
+        <v>70606</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>70943</v>
+        <v>70263</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>104770</v>
+        <v>103594</v>
       </c>
     </row>
     <row r="36">
@@ -3524,40 +3524,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>57949</v>
+        <v>56949</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>122655</v>
+        <v>121132</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>71421</v>
+        <v>71134</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>6059</v>
+        <v>6560</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>35381</v>
+        <v>35563</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>61792</v>
+        <v>61793</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>39801</v>
+        <v>40300</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>290342</v>
+        <v>291613</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>99951</v>
+        <v>99801</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>194701</v>
+        <v>192998</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>119826</v>
+        <v>121065</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>298087</v>
+        <v>299068</v>
       </c>
     </row>
     <row r="39">
@@ -3568,40 +3568,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>88786</v>
+        <v>88848</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>166259</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>107959</v>
+        <v>108078</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>19069</v>
+        <v>19479</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>62311</v>
+        <v>61287</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>96313</v>
+        <v>98021</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>69152</v>
+        <v>69067</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>331598</v>
+        <v>334362</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>141147</v>
+        <v>140828</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>250629</v>
+        <v>252948</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>168147</v>
+        <v>168421</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>347222</v>
+        <v>349851</v>
       </c>
     </row>
     <row r="40">
